--- a/Concentraciones_Salida.xlsx
+++ b/Concentraciones_Salida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,32 +446,52 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>C(t = 500.000 s)</t>
+          <t>C(t = 281.250 s)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>C(t = 1000.000 s)</t>
+          <t>C(t = 562.500 s)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>C(t = 1500.000 s)</t>
+          <t>C(t = 843.750 s)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>C(t = 2000.000 s)</t>
+          <t>C(t = 1125.000 s)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>C(t = 2500.000 s)</t>
+          <t>C(t = 1406.250 s)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C(t = 3000.000 s)</t>
+          <t>C(t = 1687.500 s)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>C(t = 1968.750 s)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>C(t = 2250.000 s)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>C(t = 2531.250 s)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>C(t = 2812.500 s)</t>
         </is>
       </c>
     </row>
@@ -500,6 +520,18 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -509,22 +541,34 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.469654138146268e-06</v>
+        <v>1.101221132529341e-08</v>
       </c>
       <c r="D3" t="n">
-        <v>4.621462468751323e-05</v>
+        <v>7.931191637265035e-07</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0002973438247332689</v>
+        <v>1.014180694896425e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0009144425346447212</v>
+        <v>5.477523781287478e-05</v>
       </c>
       <c r="G3" t="n">
-        <v>0.001880482847828283</v>
+        <v>0.0001784006404753291</v>
       </c>
       <c r="H3" t="n">
-        <v>0.003045786082316615</v>
+        <v>0.0004208388833423602</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0007991499036941366</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001304141903477471</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.001908311351426046</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.002576504882666981</v>
       </c>
     </row>
     <row r="4">
@@ -535,22 +579,34 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>4.14605819543705e-06</v>
+        <v>3.951037248050252e-08</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001157579176766206</v>
+        <v>2.44786391720318e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0006902949449583699</v>
+        <v>2.807502222020772e-05</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002022126475335168</v>
+        <v>0.0001400925504562445</v>
       </c>
       <c r="G4" t="n">
-        <v>0.004029453327664783</v>
+        <v>0.0004305910644123095</v>
       </c>
       <c r="H4" t="n">
-        <v>0.006392345708065928</v>
+        <v>0.0009732639972383285</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.001790351667653624</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.002852699520086653</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.004099097354588117</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.005457554986883388</v>
       </c>
     </row>
     <row r="5">
@@ -561,22 +617,34 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.017116712856507e-05</v>
+        <v>1.29811414950281e-07</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0002420156255449843</v>
+        <v>6.687836381713599e-06</v>
       </c>
       <c r="E5" t="n">
-        <v>0.001297076309125647</v>
+        <v>6.679117983582422e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003540061187956488</v>
+        <v>0.000300258824389176</v>
       </c>
       <c r="G5" t="n">
-        <v>0.006730129603541645</v>
+        <v>0.0008528924647985994</v>
       </c>
       <c r="H5" t="n">
-        <v>0.01034427259353165</v>
+        <v>0.001815915314894607</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.003191730034778039</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.004911098460594797</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.006868904618225545</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.008954737364234633</v>
       </c>
     </row>
     <row r="6">
@@ -587,22 +655,34 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2.422643158114832e-05</v>
+        <v>4.193331732403598e-07</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0004817966673177002</v>
+        <v>1.773145446655476e-05</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002283500570269967</v>
+        <v>0.0001524820901670359</v>
       </c>
       <c r="F6" t="n">
-        <v>0.005731743536190798</v>
+        <v>0.0006113362770488875</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01029244287664357</v>
+        <v>0.001590063967835001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01521125774155031</v>
+        <v>0.00316254936769016</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.005272242702509707</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.007784047073434233</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.01053922074902712</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.01339071512015336</v>
       </c>
     </row>
     <row r="7">
@@ -613,22 +693,34 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>5.689947506967311e-05</v>
+        <v>1.3385565225847e-06</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0009358438262441264</v>
+        <v>4.604923454624802e-05</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00389195584670447</v>
+        <v>0.0003391306424306333</v>
       </c>
       <c r="F7" t="n">
-        <v>0.008927008031488262</v>
+        <v>0.001207849853780902</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01505933366172753</v>
+        <v>0.002867199251352498</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02130444608817585</v>
+        <v>0.005310978111524416</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.008372912338358558</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.01182788596062539</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.01546087329927993</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.01909741337884048</v>
       </c>
     </row>
     <row r="8">
@@ -639,22 +731,34 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001319716901908506</v>
+        <v>4.219091867556921e-06</v>
       </c>
       <c r="D8" t="n">
-        <v>0.00178116975604408</v>
+        <v>0.0001170885274988125</v>
       </c>
       <c r="E8" t="n">
-        <v>0.006474405771033433</v>
+        <v>0.0007354562440132053</v>
       </c>
       <c r="F8" t="n">
-        <v>0.01353574462328953</v>
+        <v>0.002322759843040108</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02140418247256046</v>
+        <v>0.005028332432057097</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02892588115345312</v>
+        <v>0.008670432501804539</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.01292068348660438</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01745313161336612</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.02200870794994697</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.02640592613715767</v>
       </c>
     </row>
     <row r="9">
@@ -665,22 +769,34 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0003019864873172833</v>
+        <v>1.311164938627775e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.003320492046352208</v>
+        <v>0.0002909133488428221</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01052641181808794</v>
+        <v>0.001552662203472074</v>
       </c>
       <c r="F9" t="n">
-        <v>0.02005037356838496</v>
+        <v>0.004344033551627758</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02971616799645904</v>
+        <v>0.008578815445768969</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03834974091855629</v>
+        <v>0.01378147941835366</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.01942909803800663</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.0251127830513861</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.03056365135528039</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.03562648906918141</v>
       </c>
     </row>
     <row r="10">
@@ -691,22 +807,34 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0006806587643822454</v>
+        <v>4.01007089627673e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006053151436549813</v>
+        <v>0.0007045255880178013</v>
       </c>
       <c r="E10" t="n">
-        <v>0.01671449955496374</v>
+        <v>0.003183692301277073</v>
       </c>
       <c r="F10" t="n">
-        <v>0.02903022970058883</v>
+        <v>0.00788690658525352</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04037088412111373</v>
+        <v>0.01422255646187114</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04979515533676301</v>
+        <v>0.02131854349869467</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.02847839868780751</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.0352721075760592</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.04148026617540686</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.04701812235755463</v>
       </c>
     </row>
     <row r="11">
@@ -717,22 +845,34 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001508112853794813</v>
+        <v>0.0001204297539128899</v>
       </c>
       <c r="D11" t="n">
-        <v>0.01076727804252698</v>
+        <v>0.001658248818725072</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02588290825359673</v>
+        <v>0.006323558535139476</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04106022198141891</v>
+        <v>0.01387140730715046</v>
       </c>
       <c r="G11" t="n">
-        <v>0.05368501429440194</v>
+        <v>0.02287704042716994</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0633919013972452</v>
+        <v>0.03206147033348384</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.04066747514667607</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.04835706509786254</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.05503980491571631</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.06074933021365097</v>
       </c>
     </row>
     <row r="12">
@@ -743,22 +883,34 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003276695023421287</v>
+        <v>0.0003541725368880536</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01864122495609165</v>
+        <v>0.003780369731786545</v>
       </c>
       <c r="E12" t="n">
-        <v>0.03901902290312948</v>
+        <v>0.01212981133916432</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05667743066988946</v>
+        <v>0.02357819680532114</v>
       </c>
       <c r="G12" t="n">
-        <v>0.06985650536393352</v>
+        <v>0.03564035820746533</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07914210829571043</v>
+        <v>0.04682139076670955</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.05653244335796451</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.06468173654914651</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.07139163034129167</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.07685344291107925</v>
       </c>
     </row>
     <row r="13">
@@ -769,22 +921,34 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006960279425842422</v>
+        <v>0.001016526645306689</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03131962089974372</v>
+        <v>0.00831354538385772</v>
       </c>
       <c r="E13" t="n">
-        <v>0.05715244108411739</v>
+        <v>0.02239340997990989</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07626386922378903</v>
+        <v>0.03863334012137822</v>
       </c>
       <c r="G13" t="n">
-        <v>0.08889546957397765</v>
+        <v>0.0536793253588543</v>
       </c>
       <c r="H13" t="n">
-        <v>0.09688303151212904</v>
+        <v>0.06631004370133683</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0.07643255810420552</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.0843601621693004</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.09048944349630252</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.09518450026352866</v>
       </c>
     </row>
     <row r="14">
@@ -795,22 +959,34 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0144003614153118</v>
+        <v>0.002835165372099224</v>
       </c>
       <c r="D14" t="n">
-        <v>0.05089439025317397</v>
+        <v>0.01755081803634385</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0811655726447344</v>
+        <v>0.0396347235394366</v>
       </c>
       <c r="F14" t="n">
-        <v>0.09991218972415754</v>
+        <v>0.06085175079106068</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1105554927190742</v>
+        <v>0.07801276255764786</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1162575692829432</v>
+        <v>0.09095312788284227</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.1004137417365158</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.1072142761782583</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.1120324033408562</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.1153815060796572</v>
       </c>
     </row>
     <row r="15">
@@ -821,22 +997,34 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02888068993427868</v>
+        <v>0.007641623276734365</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07968081269171999</v>
+        <v>0.03536124569734583</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1115100682586548</v>
+        <v>0.06696060662705544</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1272831373253057</v>
+        <v>0.09186680395683064</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1342791254716476</v>
+        <v>0.1091864862777461</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1366999879618168</v>
+        <v>0.1206678292485657</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.1280719044965804</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.1326957345569551</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.1354239348769825</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.1368498146965394</v>
       </c>
     </row>
     <row r="16">
@@ -847,22 +1035,34 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05580314652751076</v>
+        <v>0.01975881137944155</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1196579556069073</v>
+        <v>0.06751393111255269</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1478578088160355</v>
+        <v>0.107452428316263</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1574865598576839</v>
+        <v>0.1325152098686938</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1591736265025962</v>
+        <v>0.1468801442599162</v>
       </c>
       <c r="H16" t="n">
-        <v>0.157443790512769</v>
+        <v>0.1546493173017162</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.1584491948721684</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.1598432672428016</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.1597616416275722</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.1587677564073111</v>
       </c>
     </row>
     <row r="17">
@@ -873,22 +1073,34 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1030399977434251</v>
+        <v>0.04852733083923854</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1714915054027634</v>
+        <v>0.1210957772408056</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1887654124393631</v>
+        <v>0.1628906518628958</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1890270100953187</v>
+        <v>0.1820528176789935</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1840319483186716</v>
+        <v>0.189544016966661</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1775564745001663</v>
+        <v>0.1912326743979509</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.1900016031412693</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.1872964547931054</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.1838692857038265</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.1801240124236778</v>
       </c>
     </row>
     <row r="18">
@@ -899,22 +1111,34 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.179844090756583</v>
+        <v>0.1116341179881525</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2332406277745782</v>
+        <v>0.2018944380619892</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2314820226832497</v>
+        <v>0.2318881318612518</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2198543353489255</v>
+        <v>0.2374395917904028</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2074084218845447</v>
+        <v>0.2342140546452325</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1960021009130757</v>
+        <v>0.2279034768253177</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.2206711205993156</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.213379917700636</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.2063759115415884</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.1997867826520453</v>
       </c>
     </row>
     <row r="19">
@@ -925,22 +1149,34 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2922466474797312</v>
+        <v>0.2356720268638775</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2991988991995964</v>
+        <v>0.3088655090706012</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2720511394977098</v>
+        <v>0.3080688562395735</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2475440501820966</v>
+        <v>0.2930818760764064</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2277486579758055</v>
+        <v>0.2766605536063913</v>
       </c>
       <c r="H19" t="n">
-        <v>0.211727619311212</v>
+        <v>0.2615107124906192</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.2480773444850204</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.2362588371595342</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.2258384757686661</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.2166000626105113</v>
       </c>
     </row>
     <row r="20">
@@ -951,22 +1187,34 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4327498433835435</v>
+        <v>0.4424018749900858</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3597194195391149</v>
+        <v>0.4269719230499674</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3058118177218347</v>
+        <v>0.3795867625206286</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2696011209894141</v>
+        <v>0.3414274499688995</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2435605036003606</v>
+        <v>0.3119578580169892</v>
       </c>
       <c r="H20" t="n">
-        <v>0.2237637154657928</v>
+        <v>0.2886862340018575</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.2698140054355161</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.2541497867825297</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.2408944853548287</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.2294964736267774</v>
       </c>
     </row>
     <row r="21">
@@ -977,22 +1225,34 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5662278794921338</v>
+        <v>0.7011970181999317</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4029607746958509</v>
+        <v>0.5243272042752077</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3282744067175916</v>
+        <v>0.4313891001768648</v>
       </c>
       <c r="F21" t="n">
-        <v>0.283840786663432</v>
+        <v>0.3745503345953458</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2536006693805334</v>
+        <v>0.335417037804341</v>
       </c>
       <c r="H21" t="n">
-        <v>0.2313267995742649</v>
+        <v>0.3064059396527934</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.2838029053044767</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.2655544310995267</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.2504226036302539</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.2376114691592482</v>
       </c>
     </row>
     <row r="22">
@@ -1003,22 +1263,34 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>0.627698027700033</v>
+        <v>0.8575630514739939</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4187377874163705</v>
+        <v>0.5629601358006178</v>
       </c>
       <c r="E22" t="n">
-        <v>0.3361630306072744</v>
+        <v>0.4504032371973517</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2887651442584671</v>
+        <v>0.386356442277603</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2570438106849404</v>
+        <v>0.3436494402393926</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2339068351679604</v>
+        <v>0.3125642843052774</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.2886326052298336</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.269473052078449</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.2536845382459989</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.2403816794387137</v>
       </c>
     </row>
     <row r="23">
@@ -1029,22 +1301,34 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5662278794921337</v>
+        <v>0.701197018199932</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4029607746958508</v>
+        <v>0.5243272042752077</v>
       </c>
       <c r="E23" t="n">
-        <v>0.3282744067175915</v>
+        <v>0.4313891001768648</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2838407866634319</v>
+        <v>0.3745503345953458</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2536006693805334</v>
+        <v>0.335417037804341</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2313267995742649</v>
+        <v>0.3064059396527934</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.2838029053044767</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.2655544310995266</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.2504226036302539</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.2376114691592482</v>
       </c>
     </row>
     <row r="24">
@@ -1055,22 +1339,34 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4327498433835435</v>
+        <v>0.4424018749900859</v>
       </c>
       <c r="D24" t="n">
-        <v>0.3597194195391148</v>
+        <v>0.4269719230499674</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3058118177218346</v>
+        <v>0.3795867625206286</v>
       </c>
       <c r="F24" t="n">
-        <v>0.269601120989414</v>
+        <v>0.3414274499688994</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2435605036003605</v>
+        <v>0.3119578580169891</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2237637154657928</v>
+        <v>0.2886862340018574</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.2698140054355161</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.2541497867825296</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.2408944853548287</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.2294964736267774</v>
       </c>
     </row>
     <row r="25">
@@ -1081,22 +1377,34 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2922466474797312</v>
+        <v>0.2356720268638775</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2991988991995964</v>
+        <v>0.3088655090706012</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2720511394977097</v>
+        <v>0.3080688562395733</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2475440501820965</v>
+        <v>0.2930818760764062</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2277486579758054</v>
+        <v>0.2766605536063912</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2117276193112119</v>
+        <v>0.2615107124906192</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.2480773444850204</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.2362588371595341</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.2258384757686661</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.2166000626105112</v>
       </c>
     </row>
     <row r="26">
@@ -1107,22 +1415,34 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1798440907565829</v>
+        <v>0.1116341179881525</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2332406277745782</v>
+        <v>0.2018944380619891</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2314820226832496</v>
+        <v>0.2318881318612517</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2198543353489253</v>
+        <v>0.2374395917904027</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2074084218845446</v>
+        <v>0.2342140546452323</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1960021009130756</v>
+        <v>0.2279034768253176</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.2206711205993156</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.213379917700636</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.2063759115415882</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.1997867826520452</v>
       </c>
     </row>
     <row r="27">
@@ -1133,22 +1453,34 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.103039997743425</v>
+        <v>0.04852733083923853</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1714915054027633</v>
+        <v>0.1210957772408056</v>
       </c>
       <c r="E27" t="n">
-        <v>0.188765412439363</v>
+        <v>0.1628906518628957</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1890270100953185</v>
+        <v>0.1820528176789934</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1840319483186714</v>
+        <v>0.1895440169666608</v>
       </c>
       <c r="H27" t="n">
-        <v>0.1775564745001661</v>
+        <v>0.1912326743979508</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.1900016031412692</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0.1872964547931053</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.1838692857038263</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.1801240124236776</v>
       </c>
     </row>
     <row r="28">
@@ -1159,22 +1491,34 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.05580314652751073</v>
+        <v>0.01975881137944155</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1196579556069073</v>
+        <v>0.06751393111255266</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1478578088160353</v>
+        <v>0.107452428316263</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1574865598576837</v>
+        <v>0.1325152098686937</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1591736265025959</v>
+        <v>0.146880144259916</v>
       </c>
       <c r="H28" t="n">
-        <v>0.1574437905127687</v>
+        <v>0.1546493173017161</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.1584491948721683</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0.1598432672428015</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.1597616416275721</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0.1587677564073109</v>
       </c>
     </row>
     <row r="29">
@@ -1185,22 +1529,34 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02888068993427866</v>
+        <v>0.007641623276734361</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07968081269171995</v>
+        <v>0.03536124569734581</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1115100682586547</v>
+        <v>0.0669606066270554</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1272831373253056</v>
+        <v>0.09186680395683054</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1342791254716474</v>
+        <v>0.109186486277746</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1366999879618166</v>
+        <v>0.1206678292485655</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.1280719044965802</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.132695734556955</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.1354239348769823</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0.1368498146965392</v>
       </c>
     </row>
     <row r="30">
@@ -1211,22 +1567,34 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0144003614153118</v>
+        <v>0.002835165372099222</v>
       </c>
       <c r="D30" t="n">
-        <v>0.05089439025317394</v>
+        <v>0.01755081803634385</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08116557264473431</v>
+        <v>0.03963472353943658</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09991218972415741</v>
+        <v>0.06085175079106062</v>
       </c>
       <c r="G30" t="n">
-        <v>0.110555492719074</v>
+        <v>0.07801276255764777</v>
       </c>
       <c r="H30" t="n">
-        <v>0.116257569282943</v>
+        <v>0.09095312788284217</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.1004137417365156</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0.1072142761782581</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0.1120324033408561</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0.115381506079657</v>
       </c>
     </row>
     <row r="31">
@@ -1237,22 +1605,34 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.006960279425842421</v>
+        <v>0.001016526645306688</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0313196208997437</v>
+        <v>0.008313545383857713</v>
       </c>
       <c r="E31" t="n">
-        <v>0.05715244108411733</v>
+        <v>0.02239340997990988</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07626386922378893</v>
+        <v>0.03863334012137818</v>
       </c>
       <c r="G31" t="n">
-        <v>0.08889546957397748</v>
+        <v>0.05367932535885422</v>
       </c>
       <c r="H31" t="n">
-        <v>0.09688303151212883</v>
+        <v>0.06631004370133674</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.07643255810420538</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.08436016216930024</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.09048944349630234</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0.09518450026352848</v>
       </c>
     </row>
     <row r="32">
@@ -1263,22 +1643,34 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.003276695023421287</v>
+        <v>0.0003541725368880533</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01864122495609163</v>
+        <v>0.003780369731786541</v>
       </c>
       <c r="E32" t="n">
-        <v>0.03901902290312943</v>
+        <v>0.01212981133916432</v>
       </c>
       <c r="F32" t="n">
-        <v>0.05667743066988939</v>
+        <v>0.0235781968053211</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0698565053639334</v>
+        <v>0.03564035820746527</v>
       </c>
       <c r="H32" t="n">
-        <v>0.07914210829571024</v>
+        <v>0.04682139076670948</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0.0565324433579644</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0.06468173654914636</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.07139163034129151</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0.07685344291107907</v>
       </c>
     </row>
     <row r="33">
@@ -1289,22 +1681,34 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.001508112853794812</v>
+        <v>0.0001204297539128897</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01076727804252697</v>
+        <v>0.00165824881872507</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0258829082535967</v>
+        <v>0.006323558535139471</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04106022198141885</v>
+        <v>0.01387140730715044</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05368501429440185</v>
+        <v>0.0228770404271699</v>
       </c>
       <c r="H33" t="n">
-        <v>0.06339190139724506</v>
+        <v>0.03206147033348378</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0.04066747514667598</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0.04835706509786241</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.05503980491571617</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0.06074933021365078</v>
       </c>
     </row>
     <row r="34">
@@ -1315,22 +1719,34 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0006806587643822453</v>
+        <v>4.010070896276725e-05</v>
       </c>
       <c r="D34" t="n">
-        <v>0.006053151436549806</v>
+        <v>0.0007045255880178003</v>
       </c>
       <c r="E34" t="n">
-        <v>0.01671449955496371</v>
+        <v>0.003183692301277069</v>
       </c>
       <c r="F34" t="n">
-        <v>0.02903022970058879</v>
+        <v>0.00788690658525351</v>
       </c>
       <c r="G34" t="n">
-        <v>0.04037088412111365</v>
+        <v>0.01422255646187112</v>
       </c>
       <c r="H34" t="n">
-        <v>0.04979515533676289</v>
+        <v>0.02131854349869462</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0.02847839868780744</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0.03527210757605909</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.04148026617540673</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0.04701812235755448</v>
       </c>
     </row>
     <row r="35">
@@ -1341,22 +1757,34 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0003019864873172832</v>
+        <v>1.311164938627773e-05</v>
       </c>
       <c r="D35" t="n">
-        <v>0.003320492046352204</v>
+        <v>0.0002909133488428217</v>
       </c>
       <c r="E35" t="n">
-        <v>0.01052641181808792</v>
+        <v>0.001552662203472072</v>
       </c>
       <c r="F35" t="n">
-        <v>0.02005037356838492</v>
+        <v>0.004344033551627751</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02971616799645897</v>
+        <v>0.008578815445768953</v>
       </c>
       <c r="H35" t="n">
-        <v>0.03834974091855619</v>
+        <v>0.01378147941835362</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0.01942909803800658</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.02511278305138603</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.0305636513552803</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0.0356264890691813</v>
       </c>
     </row>
     <row r="36">
@@ -1367,22 +1795,34 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0001319716901908506</v>
+        <v>4.219091867556913e-06</v>
       </c>
       <c r="D36" t="n">
-        <v>0.001781169756044078</v>
+        <v>0.0001170885274988123</v>
       </c>
       <c r="E36" t="n">
-        <v>0.006474405771033424</v>
+        <v>0.000735456244013204</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0135357446232895</v>
+        <v>0.002322759843040103</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02140418247256041</v>
+        <v>0.005028332432057086</v>
       </c>
       <c r="H36" t="n">
-        <v>0.02892588115345304</v>
+        <v>0.008670432501804517</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0.01292068348660435</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.01745313161336607</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.0220087079499469</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.02640592613715758</v>
       </c>
     </row>
     <row r="37">
@@ -1393,22 +1833,34 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>5.689947506967309e-05</v>
+        <v>1.338556522584697e-06</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0009358438262441255</v>
+        <v>4.604923454624794e-05</v>
       </c>
       <c r="E37" t="n">
-        <v>0.003891955846704465</v>
+        <v>0.0003391306424306326</v>
       </c>
       <c r="F37" t="n">
-        <v>0.008927008031488248</v>
+        <v>0.001207849853780899</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0150593336617275</v>
+        <v>0.002867199251352492</v>
       </c>
       <c r="H37" t="n">
-        <v>0.02130444608817579</v>
+        <v>0.005310978111524403</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0.008372912338358537</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.01182788596062536</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.01546087329927988</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.01909741337884042</v>
       </c>
     </row>
     <row r="38">
@@ -1419,22 +1871,34 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>2.422643158114831e-05</v>
+        <v>4.193331732403588e-07</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0004817966673176998</v>
+        <v>1.773145446655472e-05</v>
       </c>
       <c r="E38" t="n">
-        <v>0.002283500570269964</v>
+        <v>0.0001524820901670357</v>
       </c>
       <c r="F38" t="n">
-        <v>0.005731743536190789</v>
+        <v>0.0006113362770488861</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01029244287664355</v>
+        <v>0.001590063967834997</v>
       </c>
       <c r="H38" t="n">
-        <v>0.01521125774155027</v>
+        <v>0.003162549367690152</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0.005272242702509694</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0.007784047073434213</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.01053922074902709</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.01339071512015331</v>
       </c>
     </row>
     <row r="39">
@@ -1445,22 +1909,34 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1.017116712856507e-05</v>
+        <v>1.298114149502807e-07</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0002420156255449841</v>
+        <v>6.687836381713584e-06</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001297076309125645</v>
+        <v>6.679117983582408e-05</v>
       </c>
       <c r="F39" t="n">
-        <v>0.003540061187956483</v>
+        <v>0.0003002588243891753</v>
       </c>
       <c r="G39" t="n">
-        <v>0.006730129603541631</v>
+        <v>0.0008528924647985972</v>
       </c>
       <c r="H39" t="n">
-        <v>0.01034427259353163</v>
+        <v>0.001815915314894602</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.003191730034778031</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.004911098460594783</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.00686890461822552</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0.0089547373642346</v>
       </c>
     </row>
     <row r="40">
@@ -1471,22 +1947,34 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>4.146058195437049e-06</v>
+        <v>3.951037248050243e-08</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0001157579176766205</v>
+        <v>2.447863917203174e-06</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0006902949449583691</v>
+        <v>2.807502222020766e-05</v>
       </c>
       <c r="F40" t="n">
-        <v>0.002022126475335165</v>
+        <v>0.0001400925504562441</v>
       </c>
       <c r="G40" t="n">
-        <v>0.004029453327664775</v>
+        <v>0.0004305910644123084</v>
       </c>
       <c r="H40" t="n">
-        <v>0.006392345708065913</v>
+        <v>0.0009732639972383257</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.001790351667653619</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.002852699520086644</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.004099097354588101</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0.005457554986883368</v>
       </c>
     </row>
     <row r="41">
@@ -1497,22 +1985,34 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.469654138146267e-06</v>
+        <v>1.101221132529338e-08</v>
       </c>
       <c r="D41" t="n">
-        <v>4.621462468751321e-05</v>
+        <v>7.931191637265011e-07</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0002973438247332685</v>
+        <v>1.014180694896422e-05</v>
       </c>
       <c r="F41" t="n">
-        <v>0.00091444253464472</v>
+        <v>5.477523781287463e-05</v>
       </c>
       <c r="G41" t="n">
-        <v>0.00188048284782828</v>
+        <v>0.0001784006404753286</v>
       </c>
       <c r="H41" t="n">
-        <v>0.003045786082316608</v>
+        <v>0.0004208388833423589</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.0007991499036941339</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.001304141903477466</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.001908311351426039</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0.002576504882666971</v>
       </c>
     </row>
     <row r="42">
@@ -1538,6 +2038,18 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Concentraciones_Salida.xlsx
+++ b/Concentraciones_Salida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L42"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,50 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>C(t = 281.250 s)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>C(t = 562.500 s)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>C(t = 843.750 s)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>C(t = 1125.000 s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>C(t = 1406.250 s)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>C(t = 1687.500 s)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>C(t = 1968.750 s)</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>C(t = 2250.000 s)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>C(t = 2531.250 s)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>C(t = 2812.500 s)</t>
         </is>
@@ -517,21 +492,6 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -541,34 +501,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.101221132529341e-08</v>
+        <v>1.783504813834901e-07</v>
       </c>
       <c r="D3" t="n">
-        <v>7.931191637265035e-07</v>
+        <v>2.757998277505498e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>1.014180694896425e-05</v>
+        <v>0.0003328901938295575</v>
       </c>
       <c r="F3" t="n">
-        <v>5.477523781287478e-05</v>
+        <v>0.001215663857016148</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001784006404753291</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.0004208388833423602</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0007991499036941366</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.001304141903477471</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.001908311351426046</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.002576504882666981</v>
+        <v>0.002543563183432377</v>
       </c>
     </row>
     <row r="4">
@@ -579,34 +524,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>3.951037248050252e-08</v>
+        <v>6.015474148195613e-07</v>
       </c>
       <c r="D4" t="n">
-        <v>2.44786391720318e-06</v>
+        <v>7.602113387504615e-05</v>
       </c>
       <c r="E4" t="n">
-        <v>2.807502222020772e-05</v>
+        <v>0.0007943218949199478</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0001400925504562445</v>
+        <v>0.002688639868058088</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0004305910644123095</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0009732639972383285</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.001790351667653624</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.002852699520086653</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.004099097354588117</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.005457554986883388</v>
+        <v>0.00540774982268417</v>
       </c>
     </row>
     <row r="5">
@@ -617,34 +547,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.29811414950281e-07</v>
+        <v>1.834429917316119e-06</v>
       </c>
       <c r="D5" t="n">
-        <v>6.687836381713599e-06</v>
+        <v>0.0001791297483712834</v>
       </c>
       <c r="E5" t="n">
-        <v>6.679117983582422e-05</v>
+        <v>0.001544106193731974</v>
       </c>
       <c r="F5" t="n">
-        <v>0.000300258824389176</v>
+        <v>0.004698876104819573</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0008528924647985994</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.001815915314894607</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.003191730034778039</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.004911098460594797</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.006868904618225545</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.008954737364234633</v>
+        <v>0.008918999168321212</v>
       </c>
     </row>
     <row r="6">
@@ -655,34 +570,19 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>4.193331732403598e-07</v>
+        <v>5.473568489263824e-06</v>
       </c>
       <c r="D6" t="n">
-        <v>1.773145446655476e-05</v>
+        <v>0.0004021686531089368</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0001524820901670359</v>
+        <v>0.002805487525156503</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0006113362770488875</v>
+        <v>0.007567893572895961</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001590063967835001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.00316254936769016</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.005272242702509707</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.007784047073434233</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.01053922074902712</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.01339071512015336</v>
+        <v>0.01341205892256377</v>
       </c>
     </row>
     <row r="7">
@@ -693,34 +593,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.3385565225847e-06</v>
+        <v>1.607939412302449e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>4.604923454624802e-05</v>
+        <v>0.0008720868211773707</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0003391306424306333</v>
+        <v>0.004897415244723817</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001207849853780902</v>
+        <v>0.01167000960439294</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002867199251352498</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.005310978111524416</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.008372912338358558</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.01182788596062539</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.01546087329927993</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.01909741337884048</v>
+        <v>0.01922615366133318</v>
       </c>
     </row>
     <row r="8">
@@ -731,34 +616,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>4.219091867556921e-06</v>
+        <v>4.645045508293351e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0001170885274988125</v>
+        <v>0.001825788973116693</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0007354562440132053</v>
+        <v>0.008262942738597109</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002322759843040108</v>
+        <v>0.01743146468003622</v>
       </c>
       <c r="G8" t="n">
-        <v>0.005028332432057097</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.008670432501804539</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.01292068348660438</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.01745313161336612</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.02200870794994697</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.02640592613715767</v>
+        <v>0.02669251549826675</v>
       </c>
     </row>
     <row r="9">
@@ -769,34 +639,19 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.311164938627775e-05</v>
+        <v>0.000131644085833233</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0002909133488428221</v>
+        <v>0.003680364721890193</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001552662203472074</v>
+        <v>0.01348559080070524</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004344033551627758</v>
+        <v>0.02531311660056344</v>
       </c>
       <c r="G9" t="n">
-        <v>0.008578815445768969</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.01378147941835366</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.01942909803800663</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.0251127830513861</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.03056365135528039</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.03562648906918141</v>
+        <v>0.03611207338572522</v>
       </c>
     </row>
     <row r="10">
@@ -807,34 +662,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>4.01007089627673e-05</v>
+        <v>0.0003648870605121665</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0007045255880178013</v>
+        <v>0.007121120453368535</v>
       </c>
       <c r="E10" t="n">
-        <v>0.003183692301277073</v>
+        <v>0.02128148211836279</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00788690658525352</v>
+        <v>0.03577337632609194</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01422255646187114</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0.02131854349869467</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0.02847839868780751</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.0352721075760592</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.04148026617540686</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.04701812235755463</v>
+        <v>0.04772364816572418</v>
       </c>
     </row>
     <row r="11">
@@ -845,34 +685,19 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0001204297539128899</v>
+        <v>0.0009851788819371572</v>
       </c>
       <c r="D11" t="n">
-        <v>0.001658248818725072</v>
+        <v>0.01318686956440259</v>
       </c>
       <c r="E11" t="n">
-        <v>0.006323558535139476</v>
+        <v>0.03245305035438366</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01387140730715046</v>
+        <v>0.04921047877710973</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02287704042716994</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0.03206147033348384</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.04066747514667607</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.04835706509786254</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.05503980491571631</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.06074933021365097</v>
+        <v>0.06166491507930877</v>
       </c>
     </row>
     <row r="12">
@@ -883,34 +708,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0003541725368880536</v>
+        <v>0.002578511727868399</v>
       </c>
       <c r="D12" t="n">
-        <v>0.003780369731786545</v>
+        <v>0.02330819531186939</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01212981133916432</v>
+        <v>0.04779247156451628</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02357819680532114</v>
+        <v>0.06588713152662223</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03564035820746533</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.04682139076670955</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.05653244335796451</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.06468173654914651</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.07139163034129167</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.07685344291107925</v>
+        <v>0.07793046008519522</v>
       </c>
     </row>
     <row r="13">
@@ -921,34 +731,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001016526645306689</v>
+        <v>0.006486887781995639</v>
       </c>
       <c r="D13" t="n">
-        <v>0.00831354538385772</v>
+        <v>0.03923176245322232</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02239340997990989</v>
+        <v>0.06793159649777189</v>
       </c>
       <c r="F13" t="n">
-        <v>0.03863334012137822</v>
+        <v>0.08584566857131762</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0536793253588543</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.06631004370133683</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.07643255810420552</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.0843601621693004</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.09048944349630252</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.09518450026352866</v>
+        <v>0.09633311495490848</v>
       </c>
     </row>
     <row r="14">
@@ -959,34 +754,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.002835165372099224</v>
+        <v>0.01547307189574459</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01755081803634385</v>
+        <v>0.06275963357033154</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0396347235394366</v>
+        <v>0.0931503801427196</v>
       </c>
       <c r="F14" t="n">
-        <v>0.06085175079106068</v>
+        <v>0.1088270567169953</v>
       </c>
       <c r="G14" t="n">
-        <v>0.07801276255764786</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.09095312788284227</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.1004137417365158</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.1072142761782583</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1120324033408562</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.1153815060796572</v>
+        <v>0.1164759553453521</v>
       </c>
     </row>
     <row r="15">
@@ -997,34 +777,19 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.007641623276734365</v>
+        <v>0.03440630848210933</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03536124569734583</v>
+        <v>0.09526788937077191</v>
       </c>
       <c r="E15" t="n">
-        <v>0.06696060662705544</v>
+        <v>0.1231750783658014</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09186680395683064</v>
+        <v>0.1342109683779221</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1091864862777461</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.1206678292485657</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.1280719044965804</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.1326957345569551</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.1354239348769825</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.1368498146965394</v>
+        <v>0.1377424313087688</v>
       </c>
     </row>
     <row r="16">
@@ -1035,34 +800,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01975881137944155</v>
+        <v>0.07019277080179084</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06751393111255269</v>
+        <v>0.1370540248471299</v>
       </c>
       <c r="E16" t="n">
-        <v>0.107452428316263</v>
+        <v>0.1570150835598374</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1325152098686938</v>
+        <v>0.160995009314856</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1468801442599162</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0.1546493173017162</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.1584491948721684</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.1598432672428016</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.1597616416275722</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.1587677564073111</v>
+        <v>0.1593107454938018</v>
       </c>
     </row>
     <row r="17">
@@ -1073,34 +823,19 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04852733083923854</v>
+        <v>0.1297910777735631</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1210957772408056</v>
+        <v>0.1866801186695889</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1628906518628958</v>
+        <v>0.1928954352210764</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1820528176789935</v>
+        <v>0.1878278171756424</v>
       </c>
       <c r="G17" t="n">
-        <v>0.189544016966661</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.1912326743979509</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.1900016031412693</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.1872964547931054</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1838692857038265</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0.1801240124236778</v>
+        <v>0.1801957352043832</v>
       </c>
     </row>
     <row r="18">
@@ -1111,34 +846,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1116341179881525</v>
+        <v>0.2158107641036204</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2018944380619892</v>
+        <v>0.240576370053414</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2318881318612518</v>
+        <v>0.2283337507208051</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2374395917904028</v>
+        <v>0.213102816483607</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2342140546452325</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.2279034768253177</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.2206711205993156</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.213379917700636</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.2063759115415884</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.1997867826520453</v>
+        <v>0.1993174336630526</v>
       </c>
     </row>
     <row r="19">
@@ -1149,34 +869,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2356720268638775</v>
+        <v>0.321250462118702</v>
       </c>
       <c r="D19" t="n">
-        <v>0.3088655090706012</v>
+        <v>0.2931770869942429</v>
       </c>
       <c r="E19" t="n">
-        <v>0.3080688562395735</v>
+        <v>0.2603829071026106</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2930818760764064</v>
+        <v>0.2351079461468838</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2766605536063913</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0.2615107124906192</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.2480773444850204</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.2362588371595342</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.2258384757686661</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.2166000626105113</v>
+        <v>0.2155908215039</v>
       </c>
     </row>
     <row r="20">
@@ -1187,34 +892,19 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4424018749900858</v>
+        <v>0.4271727233266976</v>
       </c>
       <c r="D20" t="n">
-        <v>0.4269719230499674</v>
+        <v>0.3377314617381499</v>
       </c>
       <c r="E20" t="n">
-        <v>0.3795867625206286</v>
+        <v>0.2860186954358087</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3414274499688995</v>
+        <v>0.2522140095412433</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3119578580169892</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0.2886862340018575</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.2698140054355161</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.2541497867825297</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.2408944853548287</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.2294964736267774</v>
+        <v>0.2280269288785319</v>
       </c>
     </row>
     <row r="21">
@@ -1225,34 +915,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7011970181999317</v>
+        <v>0.5069300194088409</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5243272042752077</v>
+        <v>0.3676839925416395</v>
       </c>
       <c r="E21" t="n">
-        <v>0.4313891001768648</v>
+        <v>0.3026065231951023</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3745503345953458</v>
+        <v>0.2630736161999817</v>
       </c>
       <c r="G21" t="n">
-        <v>0.335417037804341</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0.3064059396527934</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.2838029053044767</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.2655544310995267</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.2504226036302539</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.2376114691592482</v>
+        <v>0.2358323785802078</v>
       </c>
     </row>
     <row r="22">
@@ -1263,34 +938,19 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>0.8575630514739939</v>
+        <v>0.5367098996847754</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5629601358006178</v>
+        <v>0.3782526472760479</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4504032371973517</v>
+        <v>0.3083486106778202</v>
       </c>
       <c r="F22" t="n">
-        <v>0.386356442277603</v>
+        <v>0.2667971233436022</v>
       </c>
       <c r="G22" t="n">
-        <v>0.3436494402393926</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.3125642843052774</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.2886326052298336</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.269473052078449</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2536845382459989</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.2403816794387137</v>
+        <v>0.2384934683411004</v>
       </c>
     </row>
     <row r="23">
@@ -1301,34 +961,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.701197018199932</v>
+        <v>0.5069300194088409</v>
       </c>
       <c r="D23" t="n">
-        <v>0.5243272042752077</v>
+        <v>0.3676839925416394</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4313891001768648</v>
+        <v>0.3026065231951023</v>
       </c>
       <c r="F23" t="n">
-        <v>0.3745503345953458</v>
+        <v>0.2630736161999817</v>
       </c>
       <c r="G23" t="n">
-        <v>0.335417037804341</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0.3064059396527934</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.2838029053044767</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.2655544310995266</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.2504226036302539</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.2376114691592482</v>
+        <v>0.2358323785802078</v>
       </c>
     </row>
     <row r="24">
@@ -1339,34 +984,19 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4424018749900859</v>
+        <v>0.4271727233266975</v>
       </c>
       <c r="D24" t="n">
-        <v>0.4269719230499674</v>
+        <v>0.3377314617381498</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3795867625206286</v>
+        <v>0.2860186954358087</v>
       </c>
       <c r="F24" t="n">
-        <v>0.3414274499688994</v>
+        <v>0.2522140095412433</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3119578580169891</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0.2886862340018574</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.2698140054355161</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.2541497867825296</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2408944853548287</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.2294964736267774</v>
+        <v>0.2280269288785318</v>
       </c>
     </row>
     <row r="25">
@@ -1377,34 +1007,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2356720268638775</v>
+        <v>0.321250462118702</v>
       </c>
       <c r="D25" t="n">
-        <v>0.3088655090706012</v>
+        <v>0.2931770869942429</v>
       </c>
       <c r="E25" t="n">
-        <v>0.3080688562395733</v>
+        <v>0.2603829071026105</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2930818760764062</v>
+        <v>0.2351079461468837</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2766605536063912</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.2615107124906192</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.2480773444850204</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.2362588371595341</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2258384757686661</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.2166000626105112</v>
+        <v>0.2155908215038999</v>
       </c>
     </row>
     <row r="26">
@@ -1415,34 +1030,19 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1116341179881525</v>
+        <v>0.2158107641036204</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2018944380619891</v>
+        <v>0.2405763700534139</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2318881318612517</v>
+        <v>0.228333750720805</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2374395917904027</v>
+        <v>0.2131028164836069</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2342140546452323</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.2279034768253176</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.2206711205993156</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.213379917700636</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.2063759115415882</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.1997867826520452</v>
+        <v>0.1993174336630525</v>
       </c>
     </row>
     <row r="27">
@@ -1453,34 +1053,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04852733083923853</v>
+        <v>0.1297910777735631</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1210957772408056</v>
+        <v>0.1866801186695889</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1628906518628957</v>
+        <v>0.1928954352210763</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1820528176789934</v>
+        <v>0.1878278171756423</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1895440169666608</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0.1912326743979508</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.1900016031412692</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.1872964547931053</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.1838692857038263</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.1801240124236776</v>
+        <v>0.1801957352043831</v>
       </c>
     </row>
     <row r="28">
@@ -1491,34 +1076,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.01975881137944155</v>
+        <v>0.07019277080179083</v>
       </c>
       <c r="D28" t="n">
-        <v>0.06751393111255266</v>
+        <v>0.1370540248471299</v>
       </c>
       <c r="E28" t="n">
-        <v>0.107452428316263</v>
+        <v>0.1570150835598373</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1325152098686937</v>
+        <v>0.1609950093148559</v>
       </c>
       <c r="G28" t="n">
-        <v>0.146880144259916</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0.1546493173017161</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0.1584491948721683</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.1598432672428015</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.1597616416275721</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0.1587677564073109</v>
+        <v>0.1593107454938017</v>
       </c>
     </row>
     <row r="29">
@@ -1529,34 +1099,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0.007641623276734361</v>
+        <v>0.03440630848210931</v>
       </c>
       <c r="D29" t="n">
-        <v>0.03536124569734581</v>
+        <v>0.09526788937077188</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0669606066270554</v>
+        <v>0.1231750783658013</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09186680395683054</v>
+        <v>0.134210968377922</v>
       </c>
       <c r="G29" t="n">
-        <v>0.109186486277746</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.1206678292485655</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.1280719044965802</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.132695734556955</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.1354239348769823</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0.1368498146965392</v>
+        <v>0.1377424313087687</v>
       </c>
     </row>
     <row r="30">
@@ -1567,34 +1122,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.002835165372099222</v>
+        <v>0.01547307189574458</v>
       </c>
       <c r="D30" t="n">
-        <v>0.01755081803634385</v>
+        <v>0.06275963357033153</v>
       </c>
       <c r="E30" t="n">
-        <v>0.03963472353943658</v>
+        <v>0.09315038014271954</v>
       </c>
       <c r="F30" t="n">
-        <v>0.06085175079106062</v>
+        <v>0.1088270567169952</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07801276255764777</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0.09095312788284217</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.1004137417365156</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.1072142761782581</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.1120324033408561</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0.115381506079657</v>
+        <v>0.116475955345352</v>
       </c>
     </row>
     <row r="31">
@@ -1605,34 +1145,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001016526645306688</v>
+        <v>0.006486887781995635</v>
       </c>
       <c r="D31" t="n">
-        <v>0.008313545383857713</v>
+        <v>0.0392317624532223</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02239340997990988</v>
+        <v>0.06793159649777183</v>
       </c>
       <c r="F31" t="n">
-        <v>0.03863334012137818</v>
+        <v>0.08584566857131753</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05367932535885422</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.06631004370133674</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.07643255810420538</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.08436016216930024</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.09048944349630234</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0.09518450026352848</v>
+        <v>0.09633311495490837</v>
       </c>
     </row>
     <row r="32">
@@ -1643,34 +1168,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0003541725368880533</v>
+        <v>0.002578511727868397</v>
       </c>
       <c r="D32" t="n">
-        <v>0.003780369731786541</v>
+        <v>0.02330819531186937</v>
       </c>
       <c r="E32" t="n">
-        <v>0.01212981133916432</v>
+        <v>0.04779247156451623</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0235781968053211</v>
+        <v>0.06588713152662216</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03564035820746527</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0.04682139076670948</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.0565324433579644</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.06468173654914636</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.07139163034129151</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.07685344291107907</v>
+        <v>0.07793046008519512</v>
       </c>
     </row>
     <row r="33">
@@ -1681,34 +1191,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0001204297539128897</v>
+        <v>0.0009851788819371563</v>
       </c>
       <c r="D33" t="n">
-        <v>0.00165824881872507</v>
+        <v>0.01318686956440258</v>
       </c>
       <c r="E33" t="n">
-        <v>0.006323558535139471</v>
+        <v>0.03245305035438363</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01387140730715044</v>
+        <v>0.04921047877710967</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0228770404271699</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0.03206147033348378</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.04066747514667598</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.04835706509786241</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.05503980491571617</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.06074933021365078</v>
+        <v>0.06166491507930867</v>
       </c>
     </row>
     <row r="34">
@@ -1719,34 +1214,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>4.010070896276725e-05</v>
+        <v>0.0003648870605121661</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0007045255880178003</v>
+        <v>0.007121120453368528</v>
       </c>
       <c r="E34" t="n">
-        <v>0.003183692301277069</v>
+        <v>0.02128148211836277</v>
       </c>
       <c r="F34" t="n">
-        <v>0.00788690658525351</v>
+        <v>0.03577337632609189</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01422255646187112</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0.02131854349869462</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.02847839868780744</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.03527210757605909</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.04148026617540673</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0.04701812235755448</v>
+        <v>0.04772364816572411</v>
       </c>
     </row>
     <row r="35">
@@ -1757,34 +1237,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>1.311164938627773e-05</v>
+        <v>0.0001316440858332329</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0002909133488428217</v>
+        <v>0.003680364721890188</v>
       </c>
       <c r="E35" t="n">
-        <v>0.001552662203472072</v>
+        <v>0.01348559080070522</v>
       </c>
       <c r="F35" t="n">
-        <v>0.004344033551627751</v>
+        <v>0.02531311660056341</v>
       </c>
       <c r="G35" t="n">
-        <v>0.008578815445768953</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0.01378147941835362</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0.01942909803800658</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.02511278305138603</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.0305636513552803</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0.0356264890691813</v>
+        <v>0.03611207338572516</v>
       </c>
     </row>
     <row r="36">
@@ -1795,34 +1260,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>4.219091867556913e-06</v>
+        <v>4.645045508293343e-05</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0001170885274988123</v>
+        <v>0.001825788973116691</v>
       </c>
       <c r="E36" t="n">
-        <v>0.000735456244013204</v>
+        <v>0.008262942738597099</v>
       </c>
       <c r="F36" t="n">
-        <v>0.002322759843040103</v>
+        <v>0.0174314646800362</v>
       </c>
       <c r="G36" t="n">
-        <v>0.005028332432057086</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0.008670432501804517</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.01292068348660435</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.01745313161336607</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.0220087079499469</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.02640592613715758</v>
+        <v>0.02669251549826671</v>
       </c>
     </row>
     <row r="37">
@@ -1833,34 +1283,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>1.338556522584697e-06</v>
+        <v>1.607939412302446e-05</v>
       </c>
       <c r="D37" t="n">
-        <v>4.604923454624794e-05</v>
+        <v>0.0008720868211773696</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0003391306424306326</v>
+        <v>0.00489741524472381</v>
       </c>
       <c r="F37" t="n">
-        <v>0.001207849853780899</v>
+        <v>0.01167000960439292</v>
       </c>
       <c r="G37" t="n">
-        <v>0.002867199251352492</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0.005310978111524403</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.008372912338358537</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.01182788596062536</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.01546087329927988</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.01909741337884042</v>
+        <v>0.01922615366133314</v>
       </c>
     </row>
     <row r="38">
@@ -1871,34 +1306,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4.193331732403588e-07</v>
+        <v>5.473568489263814e-06</v>
       </c>
       <c r="D38" t="n">
-        <v>1.773145446655472e-05</v>
+        <v>0.0004021686531089362</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0001524820901670357</v>
+        <v>0.0028054875251565</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0006113362770488861</v>
+        <v>0.00756789357289595</v>
       </c>
       <c r="G38" t="n">
-        <v>0.001590063967834997</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0.003162549367690152</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.005272242702509694</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.007784047073434213</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.01053922074902709</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0.01339071512015331</v>
+        <v>0.01341205892256375</v>
       </c>
     </row>
     <row r="39">
@@ -1909,34 +1329,19 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>1.298114149502807e-07</v>
+        <v>1.834429917316115e-06</v>
       </c>
       <c r="D39" t="n">
-        <v>6.687836381713584e-06</v>
+        <v>0.0001791297483712831</v>
       </c>
       <c r="E39" t="n">
-        <v>6.679117983582408e-05</v>
+        <v>0.001544106193731972</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0003002588243891753</v>
+        <v>0.004698876104819566</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0008528924647985972</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.001815915314894602</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.003191730034778031</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.004911098460594783</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.00686890461822552</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.0089547373642346</v>
+        <v>0.008918999168321194</v>
       </c>
     </row>
     <row r="40">
@@ -1947,34 +1352,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>3.951037248050243e-08</v>
+        <v>6.0154741481956e-07</v>
       </c>
       <c r="D40" t="n">
-        <v>2.447863917203174e-06</v>
+        <v>7.602113387504601e-05</v>
       </c>
       <c r="E40" t="n">
-        <v>2.807502222020766e-05</v>
+        <v>0.0007943218949199465</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0001400925504562441</v>
+        <v>0.002688639868058083</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0004305910644123084</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0.0009732639972383257</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.001790351667653619</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.002852699520086644</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.004099097354588101</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.005457554986883368</v>
+        <v>0.005407749822684159</v>
       </c>
     </row>
     <row r="41">
@@ -1985,34 +1375,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.101221132529338e-08</v>
+        <v>1.783504813834897e-07</v>
       </c>
       <c r="D41" t="n">
-        <v>7.931191637265011e-07</v>
+        <v>2.757998277505493e-05</v>
       </c>
       <c r="E41" t="n">
-        <v>1.014180694896422e-05</v>
+        <v>0.0003328901938295569</v>
       </c>
       <c r="F41" t="n">
-        <v>5.477523781287463e-05</v>
+        <v>0.001215663857016146</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0001784006404753286</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.0004208388833423589</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.0007991499036941339</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.001304141903477466</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.001908311351426039</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.002576504882666971</v>
+        <v>0.002543563183432372</v>
       </c>
     </row>
     <row r="42">
@@ -2035,21 +1410,6 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Concentraciones_Salida.xlsx
+++ b/Concentraciones_Salida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,50 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>C(t = 281.250 s)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>C(t = 562.500 s)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>C(t = 843.750 s)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>C(t = 1125.000 s)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>C(t = 1406.250 s)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>C(t = 1687.500 s)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>C(t = 1968.750 s)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>C(t = 2250.000 s)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>C(t = 2531.250 s)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>C(t = 2812.500 s)</t>
         </is>
@@ -492,6 +517,21 @@
       <c r="G2" t="n">
         <v>0</v>
       </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -501,18 +541,33 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
+        <v>2.232367316034164e-09</v>
+      </c>
+      <c r="D3" t="n">
         <v>1.783504813834901e-07</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
+        <v>3.450836868975576e-06</v>
+      </c>
+      <c r="F3" t="n">
         <v>2.757998277505498e-05</v>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
+        <v>0.0001186390809159283</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.0003328901938295575</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
+        <v>0.000700913902878871</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.001215663857016148</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
+        <v>0.001844089161787486</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.002543563183432377</v>
       </c>
     </row>
@@ -524,18 +579,33 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
+        <v>8.416902878718349e-09</v>
+      </c>
+      <c r="D4" t="n">
         <v>6.015474148195613e-07</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
+        <v>1.04860752018988e-05</v>
+      </c>
+      <c r="F4" t="n">
         <v>7.602113387504615e-05</v>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
+        <v>0.000301193078222778</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.0007943218949199478</v>
       </c>
-      <c r="F4" t="n">
+      <c r="I4" t="n">
+        <v>0.001599901871726558</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.002688639868058088</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
+        <v>0.003986733481069819</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.00540774982268417</v>
       </c>
     </row>
@@ -547,18 +617,33 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>2.937991608498348e-08</v>
+      </c>
+      <c r="D5" t="n">
         <v>1.834429917316119e-06</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
+        <v>2.80407620078825e-05</v>
+      </c>
+      <c r="F5" t="n">
         <v>0.0001791297483712834</v>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
+        <v>0.0006365980149902988</v>
+      </c>
+      <c r="H5" t="n">
         <v>0.001544106193731974</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
+        <v>0.002924585409562403</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.004698876104819573</v>
       </c>
-      <c r="G5" t="n">
+      <c r="K5" t="n">
+        <v>0.006740457676998732</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.008918999168321212</v>
       </c>
     </row>
@@ -570,18 +655,33 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
+        <v>1.014001997939559e-07</v>
+      </c>
+      <c r="D6" t="n">
         <v>5.473568489263824e-06</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
+        <v>7.241621754445021e-05</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.0004021686531089368</v>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
+        <v>0.001268380461844555</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.002805487525156503</v>
       </c>
-      <c r="F6" t="n">
+      <c r="I6" t="n">
+        <v>0.00495946192902</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.007567893572895961</v>
       </c>
-      <c r="G6" t="n">
+      <c r="K6" t="n">
+        <v>0.01044186245959752</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.01341205892256377</v>
       </c>
     </row>
@@ -593,18 +693,33 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
+        <v>3.476057067870299e-07</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.607939412302449e-05</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
+        <v>0.0001821914338147642</v>
+      </c>
+      <c r="F7" t="n">
         <v>0.0008720868211773707</v>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
+        <v>0.002431980453999468</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.004897415244723817</v>
       </c>
-      <c r="F7" t="n">
+      <c r="I7" t="n">
+        <v>0.008067767955715743</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.01167000960439294</v>
       </c>
-      <c r="G7" t="n">
+      <c r="K7" t="n">
+        <v>0.0154541337198032</v>
+      </c>
+      <c r="L7" t="n">
         <v>0.01922615366133318</v>
       </c>
     </row>
@@ -616,18 +731,33 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
+        <v>1.183245935430947e-06</v>
+      </c>
+      <c r="D8" t="n">
         <v>4.645045508293351e-05</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
+        <v>0.0004456855581129154</v>
+      </c>
+      <c r="F8" t="n">
         <v>0.001825788973116693</v>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
+        <v>0.004499813258811713</v>
+      </c>
+      <c r="H8" t="n">
         <v>0.008262942738597109</v>
       </c>
-      <c r="F8" t="n">
+      <c r="I8" t="n">
+        <v>0.01270292747232854</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.01743146468003622</v>
       </c>
-      <c r="G8" t="n">
+      <c r="K8" t="n">
+        <v>0.02215861306322456</v>
+      </c>
+      <c r="L8" t="n">
         <v>0.02669251549826675</v>
       </c>
     </row>
@@ -639,18 +769,33 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>3.996327410193308e-06</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.000131644085833233</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
+        <v>0.001055832416525208</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.003680364721890193</v>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
+        <v>0.008028289970889568</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.01348559080070524</v>
       </c>
-      <c r="F9" t="n">
+      <c r="I9" t="n">
+        <v>0.01940295517147655</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.02531311660056344</v>
       </c>
-      <c r="G9" t="n">
+      <c r="K9" t="n">
+        <v>0.03093296301068205</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.03611207338572522</v>
       </c>
     </row>
@@ -662,18 +807,33 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
+        <v>1.337876586823851e-05</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.0003648870605121665</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
+        <v>0.002410068162060757</v>
+      </c>
+      <c r="F10" t="n">
         <v>0.007121120453368535</v>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
+        <v>0.01379268625871305</v>
+      </c>
+      <c r="H10" t="n">
         <v>0.02128148211836279</v>
       </c>
-      <c r="F10" t="n">
+      <c r="I10" t="n">
+        <v>0.02876051335476145</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.03577337632609194</v>
       </c>
-      <c r="G10" t="n">
+      <c r="K10" t="n">
+        <v>0.04211502616882774</v>
+      </c>
+      <c r="L10" t="n">
         <v>0.04772364816572418</v>
       </c>
     </row>
@@ -685,18 +845,33 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
+        <v>4.43418279662544e-05</v>
+      </c>
+      <c r="D11" t="n">
         <v>0.0009851788819371572</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
+        <v>0.00526980886144969</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.01318686956440259</v>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
+        <v>0.02278648389430042</v>
+      </c>
+      <c r="H11" t="n">
         <v>0.03245305035438366</v>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
+        <v>0.04136275072255449</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.04921047877710973</v>
       </c>
-      <c r="G11" t="n">
+      <c r="K11" t="n">
+        <v>0.05595381922056928</v>
+      </c>
+      <c r="L11" t="n">
         <v>0.06166491507930877</v>
       </c>
     </row>
@@ -708,18 +883,33 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
+        <v>0.0001452773225432103</v>
+      </c>
+      <c r="D12" t="n">
         <v>0.002578511727868399</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
+        <v>0.01096958533241334</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.02330819531186939</v>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
+        <v>0.03615560548679386</v>
+      </c>
+      <c r="H12" t="n">
         <v>0.04779247156451628</v>
       </c>
-      <c r="F12" t="n">
+      <c r="I12" t="n">
+        <v>0.0576994262107754</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.06588713152662223</v>
       </c>
-      <c r="G12" t="n">
+      <c r="K12" t="n">
+        <v>0.07255207155341389</v>
+      </c>
+      <c r="L12" t="n">
         <v>0.07793046008519522</v>
       </c>
     </row>
@@ -731,18 +921,33 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
+        <v>0.000469606904874385</v>
+      </c>
+      <c r="D13" t="n">
         <v>0.006486887781995639</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
+        <v>0.02160621834085773</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.03923176245322232</v>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
+        <v>0.05504078485630945</v>
+      </c>
+      <c r="H13" t="n">
         <v>0.06793159649777189</v>
       </c>
-      <c r="F13" t="n">
+      <c r="I13" t="n">
+        <v>0.0780452699191895</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.08584566857131762</v>
       </c>
-      <c r="G13" t="n">
+      <c r="K13" t="n">
+        <v>0.09180787358880595</v>
+      </c>
+      <c r="L13" t="n">
         <v>0.09633311495490848</v>
       </c>
     </row>
@@ -754,18 +959,33 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
+        <v>0.001493946684086506</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.01547307189574459</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
+        <v>0.04004942451908836</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.06275963357033154</v>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
+        <v>0.08031888977300591</v>
+      </c>
+      <c r="H14" t="n">
         <v>0.0931503801427196</v>
       </c>
-      <c r="F14" t="n">
+      <c r="I14" t="n">
+        <v>0.1023320362762567</v>
+      </c>
+      <c r="J14" t="n">
         <v>0.1088270567169953</v>
       </c>
-      <c r="G14" t="n">
+      <c r="K14" t="n">
+        <v>0.1133656314305319</v>
+      </c>
+      <c r="L14" t="n">
         <v>0.1164759553453521</v>
       </c>
     </row>
@@ -777,18 +997,33 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
+        <v>0.004661597564137691</v>
+      </c>
+      <c r="D15" t="n">
         <v>0.03440630848210933</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
+        <v>0.06954706516333534</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.09526788937077191</v>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
+        <v>0.1122679290953847</v>
+      </c>
+      <c r="H15" t="n">
         <v>0.1231750783658014</v>
       </c>
-      <c r="F15" t="n">
+      <c r="I15" t="n">
+        <v>0.1300349418336317</v>
+      </c>
+      <c r="J15" t="n">
         <v>0.1342109683779221</v>
       </c>
-      <c r="G15" t="n">
+      <c r="K15" t="n">
+        <v>0.1365877836199367</v>
+      </c>
+      <c r="L15" t="n">
         <v>0.1377424313087688</v>
       </c>
     </row>
@@ -800,18 +1035,33 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
+        <v>0.01419982568061658</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.07019277080179084</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
+        <v>0.1127456446648084</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.1370540248471299</v>
       </c>
-      <c r="E16" t="n">
+      <c r="G16" t="n">
+        <v>0.150224198926883</v>
+      </c>
+      <c r="H16" t="n">
         <v>0.1570150835598374</v>
       </c>
-      <c r="F16" t="n">
+      <c r="I16" t="n">
+        <v>0.1601038861954337</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.160995009314856</v>
       </c>
-      <c r="G16" t="n">
+      <c r="K16" t="n">
+        <v>0.1605578604796123</v>
+      </c>
+      <c r="L16" t="n">
         <v>0.1593107454938018</v>
       </c>
     </row>
@@ -823,18 +1073,33 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0.04423999634441782</v>
+      </c>
+      <c r="D17" t="n">
         <v>0.1297910777735631</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
+        <v>0.1701918920722868</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.1866801186695889</v>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
+        <v>0.1923376679590826</v>
+      </c>
+      <c r="H17" t="n">
         <v>0.1928954352210764</v>
       </c>
-      <c r="F17" t="n">
+      <c r="I17" t="n">
+        <v>0.1909687527513076</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.1878278171756424</v>
       </c>
-      <c r="G17" t="n">
+      <c r="K17" t="n">
+        <v>0.1841220512817366</v>
+      </c>
+      <c r="L17" t="n">
         <v>0.1801957352043832</v>
       </c>
     </row>
@@ -846,18 +1111,33 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
+        <v>0.121304769329773</v>
+      </c>
+      <c r="D18" t="n">
         <v>0.2158107641036204</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
+        <v>0.2387892194202114</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.240576370053414</v>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
+        <v>0.2355421670562428</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.2283337507208051</v>
       </c>
-      <c r="F18" t="n">
+      <c r="I18" t="n">
+        <v>0.220638201752436</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.213102816483607</v>
       </c>
-      <c r="G18" t="n">
+      <c r="K18" t="n">
+        <v>0.2059706713562811</v>
+      </c>
+      <c r="L18" t="n">
         <v>0.1993174336630526</v>
       </c>
     </row>
@@ -869,18 +1149,33 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
+        <v>0.2720502201255362</v>
+      </c>
+      <c r="D19" t="n">
         <v>0.321250462118702</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
+        <v>0.3110339176759708</v>
+      </c>
+      <c r="F19" t="n">
         <v>0.2931770869942429</v>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
+        <v>0.2758235207359012</v>
+      </c>
+      <c r="H19" t="n">
         <v>0.2603829071026106</v>
       </c>
-      <c r="F19" t="n">
+      <c r="I19" t="n">
+        <v>0.2468932508158437</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.2351079461468838</v>
       </c>
-      <c r="G19" t="n">
+      <c r="K19" t="n">
+        <v>0.2247536581809918</v>
+      </c>
+      <c r="L19" t="n">
         <v>0.2155908215039</v>
       </c>
     </row>
@@ -892,18 +1187,33 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
+        <v>0.4823758125045884</v>
+      </c>
+      <c r="D20" t="n">
         <v>0.4271727233266976</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
+        <v>0.3758281924485878</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.3377314617381499</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
+        <v>0.3087904104941809</v>
+      </c>
+      <c r="H20" t="n">
         <v>0.2860186954358087</v>
       </c>
-      <c r="F20" t="n">
+      <c r="I20" t="n">
+        <v>0.2675541905840637</v>
+      </c>
+      <c r="J20" t="n">
         <v>0.2522140095412433</v>
       </c>
-      <c r="G20" t="n">
+      <c r="K20" t="n">
+        <v>0.2392169240534479</v>
+      </c>
+      <c r="L20" t="n">
         <v>0.2280269288785319</v>
       </c>
     </row>
@@ -915,18 +1225,33 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
+        <v>0.6790621757529187</v>
+      </c>
+      <c r="D21" t="n">
         <v>0.5069300194088409</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
+        <v>0.4210803843345883</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.3676839925416395</v>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
+        <v>0.3304504322644085</v>
+      </c>
+      <c r="H21" t="n">
         <v>0.3026065231951023</v>
       </c>
-      <c r="F21" t="n">
+      <c r="I21" t="n">
+        <v>0.2807780611095</v>
+      </c>
+      <c r="J21" t="n">
         <v>0.2630736161999817</v>
       </c>
-      <c r="G21" t="n">
+      <c r="K21" t="n">
+        <v>0.2483407769128555</v>
+      </c>
+      <c r="L21" t="n">
         <v>0.2358323785802078</v>
       </c>
     </row>
@@ -938,18 +1263,33 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
+        <v>0.7598667626840945</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.5367098996847754</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
+        <v>0.437354794286582</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.3782526472760479</v>
       </c>
-      <c r="E22" t="n">
+      <c r="G22" t="n">
+        <v>0.3380058888268493</v>
+      </c>
+      <c r="H22" t="n">
         <v>0.3083486106778202</v>
       </c>
-      <c r="F22" t="n">
+      <c r="I22" t="n">
+        <v>0.2853307716802928</v>
+      </c>
+      <c r="J22" t="n">
         <v>0.2667971233436022</v>
       </c>
-      <c r="G22" t="n">
+      <c r="K22" t="n">
+        <v>0.2514592325607921</v>
+      </c>
+      <c r="L22" t="n">
         <v>0.2384934683411004</v>
       </c>
     </row>
@@ -961,18 +1301,33 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
+        <v>0.6790621757529187</v>
+      </c>
+      <c r="D23" t="n">
         <v>0.5069300194088409</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
+        <v>0.4210803843345883</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.3676839925416394</v>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
+        <v>0.3304504322644085</v>
+      </c>
+      <c r="H23" t="n">
         <v>0.3026065231951023</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
+        <v>0.2807780611095</v>
+      </c>
+      <c r="J23" t="n">
         <v>0.2630736161999817</v>
       </c>
-      <c r="G23" t="n">
+      <c r="K23" t="n">
+        <v>0.2483407769128554</v>
+      </c>
+      <c r="L23" t="n">
         <v>0.2358323785802078</v>
       </c>
     </row>
@@ -984,18 +1339,33 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
+        <v>0.4823758125045884</v>
+      </c>
+      <c r="D24" t="n">
         <v>0.4271727233266975</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
+        <v>0.3758281924485878</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.3377314617381498</v>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
+        <v>0.3087904104941808</v>
+      </c>
+      <c r="H24" t="n">
         <v>0.2860186954358087</v>
       </c>
-      <c r="F24" t="n">
+      <c r="I24" t="n">
+        <v>0.2675541905840636</v>
+      </c>
+      <c r="J24" t="n">
         <v>0.2522140095412433</v>
       </c>
-      <c r="G24" t="n">
+      <c r="K24" t="n">
+        <v>0.2392169240534479</v>
+      </c>
+      <c r="L24" t="n">
         <v>0.2280269288785318</v>
       </c>
     </row>
@@ -1007,18 +1377,33 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
+        <v>0.2720502201255361</v>
+      </c>
+      <c r="D25" t="n">
         <v>0.321250462118702</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
+        <v>0.3110339176759707</v>
+      </c>
+      <c r="F25" t="n">
         <v>0.2931770869942429</v>
       </c>
-      <c r="E25" t="n">
+      <c r="G25" t="n">
+        <v>0.2758235207359012</v>
+      </c>
+      <c r="H25" t="n">
         <v>0.2603829071026105</v>
       </c>
-      <c r="F25" t="n">
+      <c r="I25" t="n">
+        <v>0.2468932508158436</v>
+      </c>
+      <c r="J25" t="n">
         <v>0.2351079461468837</v>
       </c>
-      <c r="G25" t="n">
+      <c r="K25" t="n">
+        <v>0.2247536581809917</v>
+      </c>
+      <c r="L25" t="n">
         <v>0.2155908215038999</v>
       </c>
     </row>
@@ -1030,18 +1415,33 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
+        <v>0.121304769329773</v>
+      </c>
+      <c r="D26" t="n">
         <v>0.2158107641036204</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
+        <v>0.2387892194202114</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.2405763700534139</v>
       </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
+        <v>0.2355421670562428</v>
+      </c>
+      <c r="H26" t="n">
         <v>0.228333750720805</v>
       </c>
-      <c r="F26" t="n">
+      <c r="I26" t="n">
+        <v>0.2206382017524359</v>
+      </c>
+      <c r="J26" t="n">
         <v>0.2131028164836069</v>
       </c>
-      <c r="G26" t="n">
+      <c r="K26" t="n">
+        <v>0.2059706713562809</v>
+      </c>
+      <c r="L26" t="n">
         <v>0.1993174336630525</v>
       </c>
     </row>
@@ -1053,18 +1453,33 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
+        <v>0.04423999634441782</v>
+      </c>
+      <c r="D27" t="n">
         <v>0.1297910777735631</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
+        <v>0.1701918920722867</v>
+      </c>
+      <c r="F27" t="n">
         <v>0.1866801186695889</v>
       </c>
-      <c r="E27" t="n">
+      <c r="G27" t="n">
+        <v>0.1923376679590825</v>
+      </c>
+      <c r="H27" t="n">
         <v>0.1928954352210763</v>
       </c>
-      <c r="F27" t="n">
+      <c r="I27" t="n">
+        <v>0.1909687527513075</v>
+      </c>
+      <c r="J27" t="n">
         <v>0.1878278171756423</v>
       </c>
-      <c r="G27" t="n">
+      <c r="K27" t="n">
+        <v>0.1841220512817365</v>
+      </c>
+      <c r="L27" t="n">
         <v>0.1801957352043831</v>
       </c>
     </row>
@@ -1076,18 +1491,33 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
+        <v>0.01419982568061658</v>
+      </c>
+      <c r="D28" t="n">
         <v>0.07019277080179083</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
+        <v>0.1127456446648083</v>
+      </c>
+      <c r="F28" t="n">
         <v>0.1370540248471299</v>
       </c>
-      <c r="E28" t="n">
+      <c r="G28" t="n">
+        <v>0.1502241989268829</v>
+      </c>
+      <c r="H28" t="n">
         <v>0.1570150835598373</v>
       </c>
-      <c r="F28" t="n">
+      <c r="I28" t="n">
+        <v>0.1601038861954336</v>
+      </c>
+      <c r="J28" t="n">
         <v>0.1609950093148559</v>
       </c>
-      <c r="G28" t="n">
+      <c r="K28" t="n">
+        <v>0.1605578604796122</v>
+      </c>
+      <c r="L28" t="n">
         <v>0.1593107454938017</v>
       </c>
     </row>
@@ -1099,18 +1529,33 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
+        <v>0.004661597564137689</v>
+      </c>
+      <c r="D29" t="n">
         <v>0.03440630848210931</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
+        <v>0.06954706516333531</v>
+      </c>
+      <c r="F29" t="n">
         <v>0.09526788937077188</v>
       </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
+        <v>0.1122679290953846</v>
+      </c>
+      <c r="H29" t="n">
         <v>0.1231750783658013</v>
       </c>
-      <c r="F29" t="n">
+      <c r="I29" t="n">
+        <v>0.1300349418336316</v>
+      </c>
+      <c r="J29" t="n">
         <v>0.134210968377922</v>
       </c>
-      <c r="G29" t="n">
+      <c r="K29" t="n">
+        <v>0.1365877836199366</v>
+      </c>
+      <c r="L29" t="n">
         <v>0.1377424313087687</v>
       </c>
     </row>
@@ -1122,18 +1567,33 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
+        <v>0.001493946684086505</v>
+      </c>
+      <c r="D30" t="n">
         <v>0.01547307189574458</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
+        <v>0.04004942451908834</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.06275963357033153</v>
       </c>
-      <c r="E30" t="n">
+      <c r="G30" t="n">
+        <v>0.08031888977300586</v>
+      </c>
+      <c r="H30" t="n">
         <v>0.09315038014271954</v>
       </c>
-      <c r="F30" t="n">
+      <c r="I30" t="n">
+        <v>0.1023320362762566</v>
+      </c>
+      <c r="J30" t="n">
         <v>0.1088270567169952</v>
       </c>
-      <c r="G30" t="n">
+      <c r="K30" t="n">
+        <v>0.1133656314305318</v>
+      </c>
+      <c r="L30" t="n">
         <v>0.116475955345352</v>
       </c>
     </row>
@@ -1145,18 +1605,33 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0.0004696069048743845</v>
+      </c>
+      <c r="D31" t="n">
         <v>0.006486887781995635</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
+        <v>0.02160621834085771</v>
+      </c>
+      <c r="F31" t="n">
         <v>0.0392317624532223</v>
       </c>
-      <c r="E31" t="n">
+      <c r="G31" t="n">
+        <v>0.05504078485630941</v>
+      </c>
+      <c r="H31" t="n">
         <v>0.06793159649777183</v>
       </c>
-      <c r="F31" t="n">
+      <c r="I31" t="n">
+        <v>0.07804526991918945</v>
+      </c>
+      <c r="J31" t="n">
         <v>0.08584566857131753</v>
       </c>
-      <c r="G31" t="n">
+      <c r="K31" t="n">
+        <v>0.09180787358880582</v>
+      </c>
+      <c r="L31" t="n">
         <v>0.09633311495490837</v>
       </c>
     </row>
@@ -1168,18 +1643,33 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
+        <v>0.0001452773225432102</v>
+      </c>
+      <c r="D32" t="n">
         <v>0.002578511727868397</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
+        <v>0.01096958533241334</v>
+      </c>
+      <c r="F32" t="n">
         <v>0.02330819531186937</v>
       </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
+        <v>0.03615560548679383</v>
+      </c>
+      <c r="H32" t="n">
         <v>0.04779247156451623</v>
       </c>
-      <c r="F32" t="n">
+      <c r="I32" t="n">
+        <v>0.05769942621077533</v>
+      </c>
+      <c r="J32" t="n">
         <v>0.06588713152662216</v>
       </c>
-      <c r="G32" t="n">
+      <c r="K32" t="n">
+        <v>0.07255207155341381</v>
+      </c>
+      <c r="L32" t="n">
         <v>0.07793046008519512</v>
       </c>
     </row>
@@ -1191,18 +1681,33 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
+        <v>4.434182796625434e-05</v>
+      </c>
+      <c r="D33" t="n">
         <v>0.0009851788819371563</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
+        <v>0.005269808861449685</v>
+      </c>
+      <c r="F33" t="n">
         <v>0.01318686956440258</v>
       </c>
-      <c r="E33" t="n">
+      <c r="G33" t="n">
+        <v>0.0227864838943004</v>
+      </c>
+      <c r="H33" t="n">
         <v>0.03245305035438363</v>
       </c>
-      <c r="F33" t="n">
+      <c r="I33" t="n">
+        <v>0.04136275072255445</v>
+      </c>
+      <c r="J33" t="n">
         <v>0.04921047877710967</v>
       </c>
-      <c r="G33" t="n">
+      <c r="K33" t="n">
+        <v>0.05595381922056921</v>
+      </c>
+      <c r="L33" t="n">
         <v>0.06166491507930867</v>
       </c>
     </row>
@@ -1214,18 +1719,33 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
+        <v>1.337876586823849e-05</v>
+      </c>
+      <c r="D34" t="n">
         <v>0.0003648870605121661</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
+        <v>0.002410068162060754</v>
+      </c>
+      <c r="F34" t="n">
         <v>0.007121120453368528</v>
       </c>
-      <c r="E34" t="n">
+      <c r="G34" t="n">
+        <v>0.01379268625871304</v>
+      </c>
+      <c r="H34" t="n">
         <v>0.02128148211836277</v>
       </c>
-      <c r="F34" t="n">
+      <c r="I34" t="n">
+        <v>0.02876051335476142</v>
+      </c>
+      <c r="J34" t="n">
         <v>0.03577337632609189</v>
       </c>
-      <c r="G34" t="n">
+      <c r="K34" t="n">
+        <v>0.04211502616882767</v>
+      </c>
+      <c r="L34" t="n">
         <v>0.04772364816572411</v>
       </c>
     </row>
@@ -1237,18 +1757,33 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>3.996327410193301e-06</v>
+      </c>
+      <c r="D35" t="n">
         <v>0.0001316440858332329</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
+        <v>0.001055832416525207</v>
+      </c>
+      <c r="F35" t="n">
         <v>0.003680364721890188</v>
       </c>
-      <c r="E35" t="n">
+      <c r="G35" t="n">
+        <v>0.008028289970889561</v>
+      </c>
+      <c r="H35" t="n">
         <v>0.01348559080070522</v>
       </c>
-      <c r="F35" t="n">
+      <c r="I35" t="n">
+        <v>0.01940295517147653</v>
+      </c>
+      <c r="J35" t="n">
         <v>0.02531311660056341</v>
       </c>
-      <c r="G35" t="n">
+      <c r="K35" t="n">
+        <v>0.03093296301068201</v>
+      </c>
+      <c r="L35" t="n">
         <v>0.03611207338572516</v>
       </c>
     </row>
@@ -1260,18 +1795,33 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
+        <v>1.183245935430945e-06</v>
+      </c>
+      <c r="D36" t="n">
         <v>4.645045508293343e-05</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
+        <v>0.0004456855581129147</v>
+      </c>
+      <c r="F36" t="n">
         <v>0.001825788973116691</v>
       </c>
-      <c r="E36" t="n">
+      <c r="G36" t="n">
+        <v>0.004499813258811708</v>
+      </c>
+      <c r="H36" t="n">
         <v>0.008262942738597099</v>
       </c>
-      <c r="F36" t="n">
+      <c r="I36" t="n">
+        <v>0.01270292747232853</v>
+      </c>
+      <c r="J36" t="n">
         <v>0.0174314646800362</v>
       </c>
-      <c r="G36" t="n">
+      <c r="K36" t="n">
+        <v>0.02215861306322452</v>
+      </c>
+      <c r="L36" t="n">
         <v>0.02669251549826671</v>
       </c>
     </row>
@@ -1283,18 +1833,33 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
+        <v>3.476057067870293e-07</v>
+      </c>
+      <c r="D37" t="n">
         <v>1.607939412302446e-05</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
+        <v>0.000182191433814764</v>
+      </c>
+      <c r="F37" t="n">
         <v>0.0008720868211773696</v>
       </c>
-      <c r="E37" t="n">
+      <c r="G37" t="n">
+        <v>0.002431980453999465</v>
+      </c>
+      <c r="H37" t="n">
         <v>0.00489741524472381</v>
       </c>
-      <c r="F37" t="n">
+      <c r="I37" t="n">
+        <v>0.008067767955715731</v>
+      </c>
+      <c r="J37" t="n">
         <v>0.01167000960439292</v>
       </c>
-      <c r="G37" t="n">
+      <c r="K37" t="n">
+        <v>0.01545413371980317</v>
+      </c>
+      <c r="L37" t="n">
         <v>0.01922615366133314</v>
       </c>
     </row>
@@ -1306,18 +1871,33 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>1.014001997939557e-07</v>
+      </c>
+      <c r="D38" t="n">
         <v>5.473568489263814e-06</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
+        <v>7.24162175444501e-05</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.0004021686531089362</v>
       </c>
-      <c r="E38" t="n">
+      <c r="G38" t="n">
+        <v>0.001268380461844554</v>
+      </c>
+      <c r="H38" t="n">
         <v>0.0028054875251565</v>
       </c>
-      <c r="F38" t="n">
+      <c r="I38" t="n">
+        <v>0.004959461929019994</v>
+      </c>
+      <c r="J38" t="n">
         <v>0.00756789357289595</v>
       </c>
-      <c r="G38" t="n">
+      <c r="K38" t="n">
+        <v>0.0104418624595975</v>
+      </c>
+      <c r="L38" t="n">
         <v>0.01341205892256375</v>
       </c>
     </row>
@@ -1329,18 +1909,33 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
+        <v>2.937991608498342e-08</v>
+      </c>
+      <c r="D39" t="n">
         <v>1.834429917316115e-06</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
+        <v>2.804076200788245e-05</v>
+      </c>
+      <c r="F39" t="n">
         <v>0.0001791297483712831</v>
       </c>
-      <c r="E39" t="n">
+      <c r="G39" t="n">
+        <v>0.0006365980149902978</v>
+      </c>
+      <c r="H39" t="n">
         <v>0.001544106193731972</v>
       </c>
-      <c r="F39" t="n">
+      <c r="I39" t="n">
+        <v>0.002924585409562398</v>
+      </c>
+      <c r="J39" t="n">
         <v>0.004698876104819566</v>
       </c>
-      <c r="G39" t="n">
+      <c r="K39" t="n">
+        <v>0.00674045767699872</v>
+      </c>
+      <c r="L39" t="n">
         <v>0.008918999168321194</v>
       </c>
     </row>
@@ -1352,18 +1947,33 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
+        <v>8.416902878718331e-09</v>
+      </c>
+      <c r="D40" t="n">
         <v>6.0154741481956e-07</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
+        <v>1.048607520189878e-05</v>
+      </c>
+      <c r="F40" t="n">
         <v>7.602113387504601e-05</v>
       </c>
-      <c r="E40" t="n">
+      <c r="G40" t="n">
+        <v>0.0003011930782227775</v>
+      </c>
+      <c r="H40" t="n">
         <v>0.0007943218949199465</v>
       </c>
-      <c r="F40" t="n">
+      <c r="I40" t="n">
+        <v>0.001599901871726555</v>
+      </c>
+      <c r="J40" t="n">
         <v>0.002688639868058083</v>
       </c>
-      <c r="G40" t="n">
+      <c r="K40" t="n">
+        <v>0.003986733481069812</v>
+      </c>
+      <c r="L40" t="n">
         <v>0.005407749822684159</v>
       </c>
     </row>
@@ -1375,18 +1985,33 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>2.232367316034159e-09</v>
+      </c>
+      <c r="D41" t="n">
         <v>1.783504813834897e-07</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
+        <v>3.450836868975569e-06</v>
+      </c>
+      <c r="F41" t="n">
         <v>2.757998277505493e-05</v>
       </c>
-      <c r="E41" t="n">
+      <c r="G41" t="n">
+        <v>0.0001186390809159281</v>
+      </c>
+      <c r="H41" t="n">
         <v>0.0003328901938295569</v>
       </c>
-      <c r="F41" t="n">
+      <c r="I41" t="n">
+        <v>0.0007009139028788698</v>
+      </c>
+      <c r="J41" t="n">
         <v>0.001215663857016146</v>
       </c>
-      <c r="G41" t="n">
+      <c r="K41" t="n">
+        <v>0.001844089161787483</v>
+      </c>
+      <c r="L41" t="n">
         <v>0.002543563183432372</v>
       </c>
     </row>
@@ -1410,6 +2035,21 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>0</v>
       </c>
     </row>
